--- a/Excel/ET/UI/UIConfig.xlsx
+++ b/Excel/ET/UI/UIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity项目\GEFramework\Excel\ET\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6BB204-54DD-4F92-92E6-A52F1C8724AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8A09E-8E71-4C9D-9104-AE9DB6C1BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-855" yWindow="2145" windowWidth="14940" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig_1" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>##comment</t>
   </si>
@@ -139,6 +139,22 @@
   </si>
   <si>
     <t>Assets/Bundles/UI/UILobby.prefab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路径</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetPath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILogin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILobby</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -238,17 +254,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,123 +562,139 @@
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="b">
+      <c r="F5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="b">
+      <c r="G5" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>